--- a/Brothers_AMS/TemplateFiles/EmployeeSkillTemplate.xlsx
+++ b/Brothers_AMS/TemplateFiles/EmployeeSkillTemplate.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="40950" windowHeight="7020"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Instructions" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Skills</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>EmployeeNumber</t>
   </si>
@@ -36,13 +34,69 @@
   </si>
   <si>
     <t>Line</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>System provide the following info:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+EmployeeNumber
+EmployeeName
+Line
+Process
+Simply modify or update the Line and Process column
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note: only line and process listed in the Line/Team Module  are accepted</t>
+    </r>
+  </si>
+  <si>
+    <t>BIPH2014-00725</t>
+  </si>
+  <si>
+    <t>Rachel, Lozano</t>
+  </si>
+  <si>
+    <t>Production Management</t>
+  </si>
+  <si>
+    <t>Man-Hour</t>
+  </si>
+  <si>
+    <t>Process</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,6 +112,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -68,12 +131,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -96,15 +159,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,30 +463,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="32.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="159" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="32.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Brothers_AMS/TemplateFiles/EmployeeSkillTemplate.xlsx
+++ b/Brothers_AMS/TemplateFiles/EmployeeSkillTemplate.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ce.ragas\Desktop\Projects2\Brothers_AMSSourceCodes\Brothers_AMS\Brothers_AMS\TemplateFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ce.ragas\Desktop\AMS\Brothers_AMS\Brothers_AMS\TemplateFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="8VKzpHjFb/4kFi9GDVty5W87PnXIG889z8lEtm0JWUmcSk29MyCnCGIboZsjdINRaywCny1IqhoH5wGJSBRQew==" workbookSaltValue="mZPUUcgItKgjX1pD/5GUMg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="40950" windowHeight="7020"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="AMSSheet" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -122,7 +123,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -132,6 +133,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -172,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -183,6 +190,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,7 +474,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,6 +521,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="R3zWFnygKpDggr1owHd2zA6lq8IvdQawvWooTLar+YOgz9NsCLphladUnBKyRdUBPYS37sC0QWGRCkT/0nMtJw==" saltValue="CwU7iRqWpbvzK8P52D5dMg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
@@ -525,13 +534,14 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="32.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="32.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -549,6 +559,10 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="3fx16WJUX5kmDxvfK/Kuve6nWHW/y0DjuCwuRUFG2s9KXtEAx7JJYAZQdSl+qkZv4/WLuBBranfOug8I91xWOg==" saltValue="797CKY6mCpj8irfeIy83Cw==" spinCount="100000" sheet="1" scenarios="1"/>
+  <protectedRanges>
+    <protectedRange sqref="C1:D1048576" name="Range1"/>
+  </protectedRanges>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Brothers_AMS/TemplateFiles/EmployeeSkillTemplate.xlsx
+++ b/Brothers_AMS/TemplateFiles/EmployeeSkillTemplate.xlsx
@@ -10,23 +10,32 @@
   </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="8VKzpHjFb/4kFi9GDVty5W87PnXIG889z8lEtm0JWUmcSk29MyCnCGIboZsjdINRaywCny1IqhoH5wGJSBRQew==" workbookSaltValue="mZPUUcgItKgjX1pD/5GUMg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="40950" windowHeight="7020"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="2" r:id="rId1"/>
     <sheet name="AMSSheet" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">AMSSheet!$B$1:$E$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>EmployeeNumber</t>
   </si>
@@ -35,6 +44,21 @@
   </si>
   <si>
     <t>Line</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>Production Management</t>
+  </si>
+  <si>
+    <t>Man-Hour</t>
+  </si>
+  <si>
+    <t>BIPH2014-00725</t>
+  </si>
+  <si>
+    <t>Rachel, Lozano</t>
   </si>
   <si>
     <r>
@@ -46,7 +70,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>System provide the following info:</t>
+      <t>System Generated:</t>
     </r>
     <r>
       <rPr>
@@ -61,6 +85,28 @@
 EmployeeName
 Line
 Process
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Manual input:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 Simply modify or update the Line and Process column
 </t>
     </r>
@@ -78,19 +124,10 @@
     </r>
   </si>
   <si>
-    <t>BIPH2014-00725</t>
-  </si>
-  <si>
-    <t>Rachel, Lozano</t>
-  </si>
-  <si>
-    <t>Production Management</t>
-  </si>
-  <si>
-    <t>Man-Hour</t>
-  </si>
-  <si>
-    <t>Process</t>
+    <t>Sample Input:</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -123,7 +160,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,8 +179,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -166,31 +209,31 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,10 +514,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,48 +526,54 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="38.140625" customWidth="1"/>
     <col min="3" max="3" width="33.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="159" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+    <row r="1" spans="1:4" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
+      <c r="A2" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D4" s="7" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="R3zWFnygKpDggr1owHd2zA6lq8IvdQawvWooTLar+YOgz9NsCLphladUnBKyRdUBPYS37sC0QWGRCkT/0nMtJw==" saltValue="CwU7iRqWpbvzK8P52D5dMg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+2tP8QBvXG39kZxSUUWwt9DeTo0kj4hunSM/r8J9LopFjoa5Kw/gy7f+bonh7uvwdhcb+l311ooUJJROUH/s8Q==" saltValue="rQYMD37RPzs7BFGViJTHrQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -531,39 +581,45 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="32.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="3" width="32.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>8</v>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="3fx16WJUX5kmDxvfK/Kuve6nWHW/y0DjuCwuRUFG2s9KXtEAx7JJYAZQdSl+qkZv4/WLuBBranfOug8I91xWOg==" saltValue="797CKY6mCpj8irfeIy83Cw==" spinCount="100000" sheet="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Ha3uvHOf6gVnkK7H61RGG1ym8fHEkAZ0A7Sf8acXcfil/SyxBiB8TX/TQeRREtxjfMuDyjInmbAst3uKkzjOow==" saltValue="1Gw7HUfvHlM2kqXrKXr5wA==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
   <protectedRanges>
-    <protectedRange sqref="C1:D1048576" name="Range1"/>
+    <protectedRange sqref="D1:E1048576" name="Range1"/>
   </protectedRanges>
+  <autoFilter ref="B1:E1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>